--- a/biology/Botanique/Hordeum_spontaneum/Hordeum_spontaneum.xlsx
+++ b/biology/Botanique/Hordeum_spontaneum/Hordeum_spontaneum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hordeum spontaneum, l'orge sauvage, est une espèce de plantes monocotylédones  de la famille des Poaceae, sous-famille des Pooideae, originaire de régions tempérées de l'Ancien Monde, du bassin méditerranéen au sud-ouest de la Chine.
 Cette espèce est considérée comme l'ancêtre sauvage de l'orge cultivée (Hordeum vulgare).
@@ -512,16 +524,18 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hordeum spontaneum est une plante herbacée vivace, cespiteuse, aux tiges dressées ou géniculées ascendantes de 35 à 70 cm de long.
-Les feuilles ont un limbe effilé, à la surface lisse ou scabre, de 5 à 16 cm de long sur 4 à 8 mm de large. La gaine porte des auricules falciformes. La ligule est une membrane non ciliée[2].
+Les feuilles ont un limbe effilé, à la surface lisse ou scabre, de 5 à 16 cm de long sur 4 à 8 mm de large. La gaine porte des auricules falciformes. La ligule est une membrane non ciliée.
 L'inflorescence est composée de racèmes spiciformes, de 4 à 9 cm de long sur 6 à 8 mm de large. Ceux-ci sont formés d'épillets groupés par triades comptant un épillet fertile sessile au centre, entourés de deux épillets stériles pédicellés.
 Les épillets stériles, bien développés, de 4 à 6 mm de long sont plus courts que les épillets fertiles.
 Les épillets fertiles, lancéolés, comprimés dorsalement et qui comptent un fleuron fertile avec extension du rachillet, font 12 à 14 mm de long.
 Ils sont sous-tendus par deux glumes similaires, linéaires ou lancéolées, de même longueur (4 à 6 mm), pubescentes en surface et toutes deux aristées, portant à l'apex une arête de 10 à 15 mm de long.
 Les fleurons fertiles ont une lemme lancéolée ou ovale de 12 à 14 mm de long, présentant 5 nervures latérales, à l'apex acuminé prolongé par une arête de 40 à 140 mm de long. Ils renferment une fleur comptant trois anthères et un ovaire pubescent à l'apex.
-Le fruit est un caryopse au péricarpe adhérent, sillonné du côté du hile et pileux à l'apex[2].
+Le fruit est un caryopse au péricarpe adhérent, sillonné du côté du hile et pileux à l'apex.
 </t>
         </is>
       </c>
@@ -552,8 +566,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon Catalogue of Life                                   (17 novembre 2016)[3] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (17 novembre 2016) :
 Hordeum agriocrithon Åberg
 Hordeum agriocrithon var. dawoense Åberg
 Hordeum agriocrithon var. nudum Q.Q.Shao,
@@ -570,8 +589,43 @@
 Hordeum vulgare subsp. agriocrithon (Åberg) Á.Löve
 Hordeum vulgare subsp. spontaneum (K.Koch) Asch. &amp; Graebn.
 Hordeum vulgare var. spontaneum (K.Koch) Körn.
-Liste des variétés
-Selon Tropicos                                           (17 novembre 2016)[4] (Attention liste brute contenant possiblement des synonymes) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hordeum_spontaneum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hordeum_spontaneum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (17 novembre 2016) (Attention liste brute contenant possiblement des synonymes) :
 variété Hordeum spontaneum var. agriocrithon Trofim.
 variété Hordeum spontaneum var. ischnatherum (Coss.) Thell.
 variété Hordeum spontaneum var. lagunculiforme (Bacht.) Bacht.
